--- a/ERP/ERP.Web/Content/Files/CHAM_CONG_CHUAN.xlsx
+++ b/ERP/ERP.Web/Content/Files/CHAM_CONG_CHUAN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Vay tín dụng</t>
+  </si>
+  <si>
+    <t>Số lần vi phạm đồng phục</t>
+  </si>
+  <si>
+    <t>Số lần quên đeo thẻ</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -448,11 +454,11 @@
     <col min="4" max="5" width="21.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="36" style="6" customWidth="1"/>
-    <col min="8" max="15" width="26.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="6"/>
+    <col min="8" max="17" width="26.42578125" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,21 +487,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
